--- a/RES/Fuzzy matching/Combined rapidfuzz/Working files/new_rank.xlsx
+++ b/RES/Fuzzy matching/Combined rapidfuzz/Working files/new_rank.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Refs + affiliations/Affiliations/RES/Fuzzy matching/Combined rapidfuzz/Working files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D25410-6CDB-7A48-ACCD-230831ABDB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C0A45-859A-0644-B745-AC6743E46210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
   <si>
     <t>Affiliation</t>
   </si>
@@ -29,9 +34,6 @@
   </si>
   <si>
     <t>aff_cum_counts_yearly</t>
-  </si>
-  <si>
-    <t>Rank</t>
   </si>
   <si>
     <t>Columbia University</t>
@@ -63,12 +65,24 @@
   <si>
     <t>Yale University</t>
   </si>
+  <si>
+    <t>Sum of aff_cum_counts_yearly</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +96,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,14 +142,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -138,6 +181,3297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Number of papers published</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> over a 10 yearly period</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Columbia University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Harvard University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Massachusetts Institute Of Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>National Bureau Of Economic Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Northwestern University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Princeton University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanford University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University Of Chicago</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University Of Pennsylvania</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yale University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-38E7-CD49-822C-CDF745B64A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1180204096"/>
+        <c:axId val="1228272768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1180204096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228272768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1228272768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>PAPERS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> published</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180204096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5F8BD-9E1C-6E15-21B0-73A2EF68B379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mathew Johnson" refreshedDate="45093.711454861113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{2AB9D37E-B552-EC41-8A1B-2BD30F2CD637}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:D81" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Affiliation" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Columbia University"/>
+        <s v="Harvard University"/>
+        <s v="Massachusetts Institute Of Technology"/>
+        <s v="National Bureau Of Economic Research"/>
+        <s v="Northwestern University"/>
+        <s v="Princeton University"/>
+        <s v="Stanford University"/>
+        <s v="University Of Chicago"/>
+        <s v="University Of Pennsylvania"/>
+        <s v="Yale University"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1940" maxValue="2010" count="8">
+        <n v="1940"/>
+        <n v="1950"/>
+        <n v="1960"/>
+        <n v="1970"/>
+        <n v="1980"/>
+        <n v="1990"/>
+        <n v="2000"/>
+        <n v="2010"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="aff_cum_counts_yearly" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="323" count="60">
+        <n v="0"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="14"/>
+        <n v="8"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="21"/>
+        <n v="4"/>
+        <n v="30"/>
+        <n v="9"/>
+        <n v="15"/>
+        <n v="7"/>
+        <n v="18"/>
+        <n v="49"/>
+        <n v="46"/>
+        <n v="43"/>
+        <n v="41"/>
+        <n v="17"/>
+        <n v="20"/>
+        <n v="28"/>
+        <n v="82"/>
+        <n v="16"/>
+        <n v="42"/>
+        <n v="116"/>
+        <n v="111"/>
+        <n v="73"/>
+        <n v="83"/>
+        <n v="40"/>
+        <n v="58"/>
+        <n v="67"/>
+        <n v="134"/>
+        <n v="56"/>
+        <n v="88"/>
+        <n v="108"/>
+        <n v="85"/>
+        <n v="104"/>
+        <n v="44"/>
+        <n v="81"/>
+        <n v="78"/>
+        <n v="100"/>
+        <n v="68"/>
+        <n v="53"/>
+        <n v="118"/>
+        <n v="161"/>
+        <n v="148"/>
+        <n v="209"/>
+        <n v="63"/>
+        <n v="96"/>
+        <n v="158"/>
+        <n v="64"/>
+        <n v="29"/>
+        <n v="120"/>
+        <n v="132"/>
+        <n v="95"/>
+        <n v="323"/>
+        <n v="62"/>
+        <n v="71"/>
+        <n v="123"/>
+        <n v="74"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="37"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83271D26-4847-F346-9910-0972711F9582}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="61">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="51"/>
+        <item x="9"/>
+        <item x="28"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="37"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="41"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="59"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="27"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="54"/>
+        <item x="48"/>
+        <item x="40"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="43"/>
+        <item x="52"/>
+        <item x="58"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="45"/>
+        <item x="49"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="55"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of aff_cum_counts_yearly" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,11 +3758,757 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6882DD-D1C6-CA42-934E-1F7492ADDC03}">
+  <dimension ref="A3:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1940</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1950</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1960</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1970</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B9" s="2">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2">
+        <v>83</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2">
+        <v>134</v>
+      </c>
+      <c r="J9" s="2">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2">
+        <v>56</v>
+      </c>
+      <c r="L9" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B10" s="2">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2">
+        <v>104</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2">
+        <v>78</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2">
+        <v>53</v>
+      </c>
+      <c r="L10" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2">
+        <v>161</v>
+      </c>
+      <c r="D11" s="2">
+        <v>148</v>
+      </c>
+      <c r="E11" s="2">
+        <v>209</v>
+      </c>
+      <c r="F11" s="2">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2">
+        <v>85</v>
+      </c>
+      <c r="H11" s="2">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2">
+        <v>158</v>
+      </c>
+      <c r="J11" s="2">
+        <v>64</v>
+      </c>
+      <c r="K11" s="2">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="2">
+        <v>120</v>
+      </c>
+      <c r="C12" s="2">
+        <v>132</v>
+      </c>
+      <c r="D12" s="2">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2">
+        <v>323</v>
+      </c>
+      <c r="F12" s="2">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2">
+        <v>123</v>
+      </c>
+      <c r="J12" s="2">
+        <v>74</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>532</v>
+      </c>
+      <c r="C13" s="2">
+        <v>574</v>
+      </c>
+      <c r="D13" s="2">
+        <v>466</v>
+      </c>
+      <c r="E13" s="2">
+        <v>740</v>
+      </c>
+      <c r="F13" s="2">
+        <v>250</v>
+      </c>
+      <c r="G13" s="2">
+        <v>319</v>
+      </c>
+      <c r="H13" s="2">
+        <v>360</v>
+      </c>
+      <c r="I13" s="2">
+        <v>669</v>
+      </c>
+      <c r="J13" s="2">
+        <v>276</v>
+      </c>
+      <c r="K13" s="2">
+        <v>246</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B32904D-0917-8844-88F3-A72BB946CFE0}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1940</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1960</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1970</v>
+      </c>
+      <c r="B5" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B6" s="2">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2">
+        <v>83</v>
+      </c>
+      <c r="F6" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2">
+        <v>134</v>
+      </c>
+      <c r="J6" s="2">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B7" s="2">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2">
+        <v>104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2">
+        <v>209</v>
+      </c>
+      <c r="F8" s="2">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2">
+        <v>158</v>
+      </c>
+      <c r="J8" s="2">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="2">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2">
+        <v>323</v>
+      </c>
+      <c r="F9" s="2">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2">
+        <v>123</v>
+      </c>
+      <c r="J9" s="2">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +4516,7 @@
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,16 +4526,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1940</v>
@@ -463,16 +4540,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1940</v>
@@ -480,16 +4554,13 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1940</v>
@@ -497,16 +4568,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1940</v>
@@ -514,16 +4582,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1940</v>
@@ -531,16 +4596,13 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1940</v>
@@ -548,16 +4610,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1940</v>
@@ -565,16 +4624,13 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1940</v>
@@ -582,16 +4638,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1940</v>
@@ -599,16 +4652,13 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1940</v>
@@ -616,16 +4666,13 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1950</v>
@@ -633,16 +4680,13 @@
       <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1950</v>
@@ -650,16 +4694,13 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1950</v>
@@ -667,16 +4708,13 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1950</v>
@@ -684,16 +4722,13 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1950</v>
@@ -701,16 +4736,13 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1950</v>
@@ -718,16 +4750,13 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1950</v>
@@ -735,16 +4764,13 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1950</v>
@@ -752,16 +4778,13 @@
       <c r="D19">
         <v>21</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1950</v>
@@ -769,16 +4792,13 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>1950</v>
@@ -786,16 +4806,13 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1960</v>
@@ -803,16 +4820,13 @@
       <c r="D22">
         <v>30</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1960</v>
@@ -820,16 +4834,13 @@
       <c r="D23">
         <v>9</v>
       </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1960</v>
@@ -837,16 +4848,13 @@
       <c r="D24">
         <v>21</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1960</v>
@@ -854,16 +4862,13 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1960</v>
@@ -871,16 +4876,13 @@
       <c r="D26">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1960</v>
@@ -888,16 +4890,13 @@
       <c r="D27">
         <v>7</v>
       </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1960</v>
@@ -905,16 +4904,13 @@
       <c r="D28">
         <v>18</v>
       </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>1960</v>
@@ -922,16 +4918,13 @@
       <c r="D29">
         <v>49</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>1960</v>
@@ -939,16 +4932,13 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>1960</v>
@@ -956,16 +4946,13 @@
       <c r="D31">
         <v>18</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>1970</v>
@@ -973,16 +4960,13 @@
       <c r="D32">
         <v>46</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>1970</v>
@@ -990,16 +4974,13 @@
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>1970</v>
@@ -1007,16 +4988,13 @@
       <c r="D34">
         <v>41</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>1970</v>
@@ -1024,16 +5002,13 @@
       <c r="D35">
         <v>14</v>
       </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>1970</v>
@@ -1041,16 +5016,13 @@
       <c r="D36">
         <v>17</v>
       </c>
-      <c r="E36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>1970</v>
@@ -1058,16 +5030,13 @@
       <c r="D37">
         <v>20</v>
       </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>1970</v>
@@ -1075,16 +5044,13 @@
       <c r="D38">
         <v>28</v>
       </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>1970</v>
@@ -1092,16 +5058,13 @@
       <c r="D39">
         <v>82</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>1970</v>
@@ -1109,16 +5072,13 @@
       <c r="D40">
         <v>16</v>
       </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>1970</v>
@@ -1126,16 +5086,13 @@
       <c r="D41">
         <v>42</v>
       </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>1980</v>
@@ -1143,16 +5100,13 @@
       <c r="D42">
         <v>116</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>1980</v>
@@ -1160,16 +5114,13 @@
       <c r="D43">
         <v>111</v>
       </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1980</v>
@@ -1177,16 +5128,13 @@
       <c r="D44">
         <v>73</v>
       </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>1980</v>
@@ -1194,16 +5142,13 @@
       <c r="D45">
         <v>83</v>
       </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>1980</v>
@@ -1211,16 +5156,13 @@
       <c r="D46">
         <v>40</v>
       </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>1980</v>
@@ -1228,16 +5170,13 @@
       <c r="D47">
         <v>58</v>
       </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>1980</v>
@@ -1245,16 +5184,13 @@
       <c r="D48">
         <v>67</v>
       </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>1980</v>
@@ -1262,16 +5198,13 @@
       <c r="D49">
         <v>134</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>1980</v>
@@ -1279,16 +5212,13 @@
       <c r="D50">
         <v>49</v>
       </c>
-      <c r="E50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>1980</v>
@@ -1296,16 +5226,13 @@
       <c r="D51">
         <v>56</v>
       </c>
-      <c r="E51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>1990</v>
@@ -1313,16 +5240,13 @@
       <c r="D52">
         <v>88</v>
       </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>1990</v>
@@ -1330,16 +5254,13 @@
       <c r="D53">
         <v>108</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1990</v>
@@ -1347,16 +5268,13 @@
       <c r="D54">
         <v>85</v>
       </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>1990</v>
@@ -1364,16 +5282,13 @@
       <c r="D55">
         <v>104</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>1990</v>
@@ -1381,16 +5296,13 @@
       <c r="D56">
         <v>44</v>
       </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>1990</v>
@@ -1398,16 +5310,13 @@
       <c r="D57">
         <v>81</v>
       </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>1990</v>
@@ -1415,16 +5324,13 @@
       <c r="D58">
         <v>78</v>
       </c>
-      <c r="E58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>1990</v>
@@ -1432,16 +5338,13 @@
       <c r="D59">
         <v>100</v>
       </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>1990</v>
@@ -1449,16 +5352,13 @@
       <c r="D60">
         <v>68</v>
       </c>
-      <c r="E60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>1990</v>
@@ -1466,16 +5366,13 @@
       <c r="D61">
         <v>53</v>
       </c>
-      <c r="E61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>2000</v>
@@ -1483,16 +5380,13 @@
       <c r="D62">
         <v>118</v>
       </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>2000</v>
@@ -1500,16 +5394,13 @@
       <c r="D63">
         <v>161</v>
       </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>2000</v>
@@ -1517,16 +5408,13 @@
       <c r="D64">
         <v>148</v>
       </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>2000</v>
@@ -1534,16 +5422,13 @@
       <c r="D65">
         <v>209</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>2000</v>
@@ -1551,16 +5436,13 @@
       <c r="D66">
         <v>63</v>
       </c>
-      <c r="E66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -1568,16 +5450,13 @@
       <c r="D67">
         <v>85</v>
       </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>2000</v>
@@ -1585,16 +5464,13 @@
       <c r="D68">
         <v>96</v>
       </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>2000</v>
@@ -1602,16 +5478,13 @@
       <c r="D69">
         <v>158</v>
       </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70">
         <v>2000</v>
@@ -1619,16 +5492,13 @@
       <c r="D70">
         <v>64</v>
       </c>
-      <c r="E70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -1636,16 +5506,13 @@
       <c r="D71">
         <v>29</v>
       </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>2010</v>
@@ -1653,16 +5520,13 @@
       <c r="D72">
         <v>120</v>
       </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>2010</v>
@@ -1670,16 +5534,13 @@
       <c r="D73">
         <v>132</v>
       </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>2010</v>
@@ -1687,16 +5548,13 @@
       <c r="D74">
         <v>95</v>
       </c>
-      <c r="E74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>2010</v>
@@ -1704,16 +5562,13 @@
       <c r="D75">
         <v>323</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>2010</v>
@@ -1721,16 +5576,13 @@
       <c r="D76">
         <v>68</v>
       </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>2010</v>
@@ -1738,16 +5590,13 @@
       <c r="D77">
         <v>62</v>
       </c>
-      <c r="E77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78">
         <v>2010</v>
@@ -1755,16 +5604,13 @@
       <c r="D78">
         <v>71</v>
       </c>
-      <c r="E78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>2010</v>
@@ -1772,16 +5618,13 @@
       <c r="D79">
         <v>123</v>
       </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80">
         <v>2010</v>
@@ -1789,25 +5632,19 @@
       <c r="D80">
         <v>74</v>
       </c>
-      <c r="E80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>2010</v>
       </c>
       <c r="D81">
         <v>44</v>
-      </c>
-      <c r="E81">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
